--- a/docs/presentationTimeOffset.xlsx
+++ b/docs/presentationTimeOffset.xlsx
@@ -366,19 +366,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J11"/>
+  <dimension ref="B4:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="10" width="11.140625" customWidth="1"/>
+    <col min="3" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -406,45 +406,59 @@
       <c r="J4" s="1">
         <v>11</v>
       </c>
+      <c r="K4" s="1">
+        <v>798</v>
+      </c>
+      <c r="L4" s="1">
+        <v>798</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <f>C4-1</f>
+        <f t="shared" ref="C5:L5" si="0">C4-1</f>
         <v>899</v>
       </c>
       <c r="D5">
-        <f>D4-1</f>
+        <f t="shared" si="0"/>
         <v>899</v>
       </c>
       <c r="E5">
-        <f>E4-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F5">
-        <f>F4-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G5">
-        <f>G4-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H5">
-        <f>H4-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I5">
-        <f>I4-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f>J4-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -472,8 +486,14 @@
       <c r="J6" s="1">
         <v>25</v>
       </c>
+      <c r="K6" s="1">
+        <v>12800</v>
+      </c>
+      <c r="L6" s="1">
+        <v>48000</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -501,82 +521,104 @@
       <c r="J7" s="1">
         <v>300</v>
       </c>
+      <c r="K7" s="1">
+        <v>49152</v>
+      </c>
+      <c r="L7" s="1">
+        <v>184320</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C7/C6</f>
+        <f t="shared" ref="C8:L8" si="1">C7/C6</f>
         <v>3.84</v>
       </c>
       <c r="D8">
-        <f>D7/D6</f>
+        <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
       <c r="E8">
-        <f>E7/E6</f>
+        <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
       <c r="F8">
-        <f>F7/F6</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G8">
-        <f>G7/G6</f>
+        <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
       <c r="H8">
-        <f>H7/H6</f>
+        <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
       <c r="I8">
-        <f>I7/I6</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J8">
-        <f>J7/J6</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <f>C5*C8*C6</f>
+        <f t="shared" ref="C10:J10" si="2">C5*C8*C6</f>
         <v>165703680</v>
       </c>
       <c r="D10">
-        <f>D5*D8*D6</f>
+        <f t="shared" si="2"/>
         <v>44187648</v>
       </c>
       <c r="E10">
-        <f>E5*E8*E6</f>
+        <f t="shared" si="2"/>
         <v>61440</v>
       </c>
       <c r="F10">
-        <f>F5*F8*F6</f>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="G10">
-        <f>G5*G8*G6</f>
+        <f t="shared" si="2"/>
         <v>2949120</v>
       </c>
       <c r="H10">
-        <f>H5*H8*H6</f>
+        <f t="shared" si="2"/>
         <v>786432</v>
       </c>
       <c r="I10">
-        <f>I5*I8*I6</f>
+        <f t="shared" si="2"/>
         <v>5760000</v>
       </c>
       <c r="J10">
-        <f>J5*J8*J6</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
+      <c r="K10">
+        <f t="shared" ref="K10:L10" si="3">K5*K8*K6</f>
+        <v>39174144</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>146903040</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>165703680</v>
       </c>
@@ -600,6 +642,12 @@
       </c>
       <c r="J11">
         <v>3000</v>
+      </c>
+      <c r="K11">
+        <v>39174144</v>
+      </c>
+      <c r="L11">
+        <v>146903040</v>
       </c>
     </row>
   </sheetData>

--- a/docs/presentationTimeOffset.xlsx
+++ b/docs/presentationTimeOffset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +67,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -83,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L11"/>
+  <dimension ref="B4:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,10 +414,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="1">
-        <v>798</v>
+        <v>311</v>
       </c>
       <c r="L4" s="1">
-        <v>798</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -451,11 +458,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>797</v>
+        <v>310</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>797</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -487,10 +494,10 @@
         <v>25</v>
       </c>
       <c r="K6" s="1">
-        <v>12800</v>
+        <v>48000</v>
       </c>
       <c r="L6" s="1">
-        <v>48000</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -522,10 +529,10 @@
         <v>300</v>
       </c>
       <c r="K7" s="1">
-        <v>49152</v>
+        <v>384000</v>
       </c>
       <c r="L7" s="1">
-        <v>184320</v>
+        <v>98304</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -566,11 +573,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -611,43 +618,127 @@
       </c>
       <c r="K10">
         <f t="shared" ref="K10:L10" si="3">K5*K8*K6</f>
-        <v>39174144</v>
+        <v>119040000</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>146903040</v>
+        <v>30474240</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="C11" s="2">
         <v>165703680</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>44187648</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>61440</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>60000</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>2949120</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>786432</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>5760000</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>3000</v>
       </c>
-      <c r="K11">
-        <v>39174144</v>
-      </c>
-      <c r="L11">
-        <v>146903040</v>
+      <c r="K11" s="2">
+        <v>119038976</v>
+      </c>
+      <c r="L11" s="2">
+        <v>30474240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>C10-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>D10-D11</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>E10-E11</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>F10-F11</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>G10-G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>H10-H11</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>I10-I11</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>J10-J11</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>K10-K11</f>
+        <v>1024</v>
+      </c>
+      <c r="L12">
+        <f>L10-L11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C12/128</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>D12/128</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E12/128</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F12/128</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>G12/128</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>H12/128</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>I12/128</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>J12/128</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>K12/128</f>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f>L12/128</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
